--- a/biology/Médecine/Hôpital_de_Caderousse/Hôpital_de_Caderousse.xlsx
+++ b/biology/Médecine/Hôpital_de_Caderousse/Hôpital_de_Caderousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Caderousse</t>
+          <t>Hôpital_de_Caderousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital de Caderousse, dans le Vaucluse, est une institution charitable qui fut fondée en 1271 et dont les dernières transformations datent de 1999. Au cours de ses huit siècles d'existence, il fut successivement appelé : Hôpital des pauvres, Hôtel Dieu, Bureau de bienfaisance, Hôpital laïque des pauvres, Hospice de Caderousse, Hôpital Public, Maison de retraite. C'est actuellement un E.H.P.A.D (Établissement d'hébergement pour personnes âgées dépendantes).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Caderousse</t>
+          <t>Hôpital_de_Caderousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine de l’hôpital de Caderousse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si on ne trouve pas dans les documents de Caderousse, la date de création de cette première institution charitable. Aux archives d’Avignon par contre, des contrats concernant la maison d’Ancézune mentionnent dans des testaments et des legs rédigés en l’an 1271 au profit des lits des pauvres de l’hôpital de Caderousse, dont celui de Raimond Barrière, co-seigneur du Bourg, rédigé le 21 novembre 1271, par le moine clunisien Raimbaud de Vassione, prieur. Son emplacement devait se trouver non loin d’une maison claustrale et donc à l’emplacement actuel.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Caderousse</t>
+          <t>Hôpital_de_Caderousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moyen Âge
-1271. Existence de l’institution.
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1271. Existence de l’institution.
 1301 à 1399. - Tous les testaments retrouvés et exploités des archives du duché de Caderousse (Ad vaucl, 3e 54) détaillent la liste des œuvres versées pour les âmes des défunts : Au profit des pauvres de l’hôpital, pour le rachat des captifs au-delà des mers pour l’Église de Caderousse, pour les cierges etc.
-Renaissance
-1414. - Sur le cadastre de la co-seigneurie de Caderousse réalisée à partir de l’année, il apparaît que l’hôpital est situé : In Carreria Per Quam Itur De Platea Ad Hospitalem (Bât. Maison) qui peut se traduire par l’expression (chemin qui permet le passage à la grande rue ou à la place de l’hôpital.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Caderousse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Caderousse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1414. - Sur le cadastre de la co-seigneurie de Caderousse réalisée à partir de l’année, il apparaît que l’hôpital est situé : In Carreria Per Quam Itur De Platea Ad Hospitalem (Bât. Maison) qui peut se traduire par l’expression (chemin qui permet le passage à la grande rue ou à la place de l’hôpital.
 1462, le 10 janvier, l’hôpital des pauvres de Paris offre des dons en espèces à celui de Caderousse.
 1551. - Dame Baroncelli, signe une reconnaissance de don pour les pauvres mendiants du bourg et ordonne une distribution d’argent le lundi des morts.
 Elle était l’épouse légitime du co-seigneur Reynaudi de Cambis, qui avait son château
@@ -564,8 +618,43 @@
 Les pauvres forains ne pourront séjourner plus de 24 heures dans les lieux, mais pourront recevoir des bonnes mains ce qu’il leur plaira de donner.
 Ils feront célébrer chaque année une messe anniversaire pour l’âme de Jeanne Baroncelli et d’Anthoine Giry Bienfaiteurs.
 1616. Le 14 janvier, Fabrice Vecosplus, chapelain du pape et commissaire des causes étrangères à Rome, interdit à l’évêque d’Orange ou au vice-légat de troubler la commune de Caderousse dans la possession où elle était, de faire administrer son hospice par des recteurs nommés par les consuls.
-Période moderne
-1627. L’hôpital n’est qu’un taudis capable à peine de recevoir deux ou trois malades. Ils étaient servis par une femme à gage, dont les soins mercenaires se bornaient aux nécessités les plus urgentes et n’avaient jamais les secours spirituels pour objet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Caderousse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Caderousse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1627. L’hôpital n’est qu’un taudis capable à peine de recevoir deux ou trois malades. Ils étaient servis par une femme à gage, dont les soins mercenaires se bornaient aux nécessités les plus urgentes et n’avaient jamais les secours spirituels pour objet.
 À cette date l’hôpital primitif subit d’importantes réparations.
 1652. Les réunions se faisaient à la maison consulaire (la mairie), les fenêtres ouvertes.
 l’Abbé Barbe Vicaire Apostolique et commissaire, vérifie tous les mouvements portant sur les produits pharmaceutiques et les stocks.
@@ -616,8 +705,43 @@
 1837. Le Préfet demande à adjoindre aux deux médecins déjà en exercice, le sieur Romuald
 Rollet, docteur en médecine à titre bénévole.
 1838. Lettre du Sous-préfet d’Orange relatif au legs de 8 000 francs de Madame la Duchesse de Gramont.
-Période contemporaine
-1843.(Recati)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Caderousse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Caderousse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1843.(Recati)
 Projet de construction d’un hangar pour servir de refuges aux bestiaux lors des inondations du Rhône.
 Agrandissement de l’hospice :
 démolition de la façade du midi qui menace ruine.
